--- a/volunteer-neau/volunteer-py/volunteer-info/社团/绿色志愿者协会第十周时间记录表..xlsx
+++ b/volunteer-neau/volunteer-py/volunteer-info/社团/绿色志愿者协会第十周时间记录表..xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Desktop\Jser\trial-class-6-1\volunteer-neau\volunteer-py\volunteer-info\社团\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985CECB3-9C7E-48C5-AC0E-34C3E6FB6DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="8100" yWindow="2985" windowWidth="36000" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="230">
   <si>
     <t>序号</t>
   </si>
@@ -709,14 +715,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,345 +763,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1124,254 +801,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -1380,8 +812,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,71 +847,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="常规 25" xfId="17"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 25" xfId="1" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1734,34 +1143,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.0916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.275" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.8166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1833333333333" style="1" customWidth="1"/>
-    <col min="10" max="32" width="9" style="1"/>
-    <col min="33" max="16384" width="21.1833333333333" style="1"/>
+    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="21.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <f>MAX(A1:A$1)+1</f>
         <v>1</v>
@@ -1821,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <f>MAX(A$1:A2)+1</f>
         <v>2</v>
@@ -1852,28 +1261,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:9">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <f>MAX(A$1:A3)+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <f>SUM(I4:I$9999)-SUM(F5:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1883,14 +1292,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1898,28 +1307,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:9">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <f>MAX(A$1:A5)+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <f>SUM(I6:I$9999)-SUM(F7:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1929,14 +1338,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <f>MAX(A$1:A7)+1</f>
         <v>5</v>
@@ -1975,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <f>MAX(A$1:A8)+1</f>
         <v>6</v>
@@ -2006,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <f>MAX(A$1:A9)+1</f>
         <v>7</v>
@@ -2037,28 +1446,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <f>MAX(A$1:A10)+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <f>SUM(I11:I$9999)-SUM(F12:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -2068,14 +1477,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:9">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <f>MAX(A$1:A12)+1</f>
         <v>9</v>
@@ -2112,28 +1521,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:9">
-      <c r="A14" s="3">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <f>MAX(A$1:A13)+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10">
         <f>SUM(I14:I$9999)-SUM(F15:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2143,14 +1552,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
@@ -2158,28 +1567,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:9">
-      <c r="A16" s="3">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <f>MAX(A$1:A15)+1</f>
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="10">
         <f>SUM(I16:I$9999)-SUM(F17:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -2189,14 +1598,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:9">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
@@ -2204,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <f>MAX(A$1:A17)+1</f>
         <v>12</v>
@@ -2233,28 +1642,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:9">
-      <c r="A19" s="3">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <f>MAX(A$1:A18)+1</f>
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <f>SUM(I19:I$9999)-SUM(F20:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2264,14 +1673,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:9">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <f>MAX(A$1:A20)+1</f>
         <v>14</v>
@@ -2310,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f>MAX(A$1:A21)+1</f>
         <v>15</v>
@@ -2341,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <f>MAX(A$1:A22)+1</f>
         <v>16</v>
@@ -2372,28 +1781,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" spans="1:9">
-      <c r="A24" s="3">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
         <f>MAX(A$1:A23)+1</f>
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="10">
         <f>SUM(I24:I$9999)-SUM(F25:F$9999)</f>
         <v>5</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -2403,14 +1812,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="7" t="s">
         <v>17</v>
       </c>
@@ -2418,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <f>MAX(A$1:A25)+1</f>
         <v>18</v>
@@ -2449,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <f>MAX(A$1:A26)+1</f>
         <v>19</v>
@@ -2480,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f>MAX(A$1:A27)+1</f>
         <v>20</v>
@@ -2511,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <f>MAX(A$1:A28)+1</f>
         <v>21</v>
@@ -2542,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <f>MAX(A$1:A29)+1</f>
         <v>22</v>
@@ -2573,28 +1982,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:9">
-      <c r="A31" s="3">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
         <f>MAX(A$1:A30)+1</f>
         <v>23</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <f>SUM(I31:I$9999)-SUM(F32:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -2604,14 +2013,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1" spans="1:9">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="7" t="s">
         <v>17</v>
       </c>
@@ -2619,28 +2028,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1" spans="1:9">
-      <c r="A33" s="3">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
         <f>MAX(A$1:A32)+1</f>
         <v>24</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <f>SUM(I33:I$9999)-SUM(F34:F$9999)</f>
         <v>5</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2650,14 +2059,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="7" t="s">
         <v>17</v>
       </c>
@@ -2665,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="1:9">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <f>MAX(A$1:A34)+1</f>
         <v>25</v>
@@ -2694,28 +2103,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" ht="20" customHeight="1" spans="1:9">
-      <c r="A36" s="3">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
         <f>MAX(A$1:A35)+1</f>
         <v>26</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="10">
         <f>SUM(I36:I$9999)-SUM(F37:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -2725,14 +2134,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" ht="20" customHeight="1" spans="1:9">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="7" t="s">
         <v>22</v>
       </c>
@@ -2740,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="20" customHeight="1" spans="1:9">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <f>MAX(A$1:A37)+1</f>
         <v>27</v>
@@ -2771,28 +2180,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="20" customHeight="1" spans="1:9">
-      <c r="A39" s="3">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
         <f>MAX(A$1:A38)+1</f>
         <v>28</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="10">
         <f>SUM(I39:I$9999)-SUM(F40:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -2802,14 +2211,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" ht="20" customHeight="1" spans="1:9">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" ht="20" customHeight="1" spans="1:9">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <f>MAX(A$1:A40)+1</f>
         <v>29</v>
@@ -2848,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="1:9">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <f>MAX(A$1:A41)+1</f>
         <v>30</v>
@@ -2879,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" ht="20" customHeight="1" spans="1:9">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <f>MAX(A$1:A42)+1</f>
         <v>31</v>
@@ -2910,7 +2319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" ht="20" customHeight="1" spans="1:9">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <f>MAX(A$1:A43)+1</f>
         <v>32</v>
@@ -2941,28 +2350,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" ht="20" customHeight="1" spans="1:9">
-      <c r="A45" s="3">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
         <f>MAX(A$1:A44)+1</f>
         <v>33</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="10">
         <f>SUM(I45:I$9999)-SUM(F46:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -2972,14 +2381,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" ht="20" customHeight="1" spans="1:9">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="7" t="s">
         <v>22</v>
       </c>
@@ -2987,7 +2396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" ht="20" customHeight="1" spans="1:9">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <f>MAX(A$1:A46)+1</f>
         <v>34</v>
@@ -3018,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" ht="20" customHeight="1" spans="1:9">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <f>MAX(A$1:A47)+1</f>
         <v>35</v>
@@ -3049,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" ht="20" customHeight="1" spans="1:9">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <f>MAX(A$1:A48)+1</f>
         <v>36</v>
@@ -3080,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" ht="20" customHeight="1" spans="1:9">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <f>MAX(A$1:A49)+1</f>
         <v>37</v>
@@ -3111,28 +2520,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" ht="20" customHeight="1" spans="1:9">
-      <c r="A51" s="3">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="10">
         <f>MAX(A$1:A50)+1</f>
         <v>38</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="10">
         <f>SUM(I51:I$9999)-SUM(F52:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -3142,14 +2551,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" ht="20" customHeight="1" spans="1:9">
-      <c r="A52" s="3"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="5" t="s">
         <v>14</v>
       </c>
@@ -3157,28 +2566,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" ht="20" customHeight="1" spans="1:9">
-      <c r="A53" s="3">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="10">
         <f>MAX(A$1:A52)+1</f>
         <v>39</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="10">
         <f>SUM(I53:I$9999)-SUM(F54:F$9999)</f>
         <v>9</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="7" t="s">
@@ -3188,14 +2597,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" ht="20" customHeight="1" spans="1:9">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="7" t="s">
         <v>27</v>
       </c>
@@ -3203,14 +2612,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" ht="20" customHeight="1" spans="1:9">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="5" t="s">
         <v>14</v>
       </c>
@@ -3218,7 +2627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" ht="20" customHeight="1" spans="1:9">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <f>MAX(A$1:A55)+1</f>
         <v>40</v>
@@ -3249,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" ht="20" customHeight="1" spans="1:9">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <f>MAX(A$1:A56)+1</f>
         <v>41</v>
@@ -3280,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="1:9">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <f>MAX(A$1:A57)+1</f>
         <v>42</v>
@@ -3311,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="1:9">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <f>MAX(A$1:A58)+1</f>
         <v>43</v>
@@ -3342,7 +2751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="1:9">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <f>MAX(A$1:A59)+1</f>
         <v>44</v>
@@ -3373,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="1:9">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <f>MAX(A$1:A60)+1</f>
         <v>45</v>
@@ -3404,7 +2813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="1:9">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <f>MAX(A$1:A61)+1</f>
         <v>46</v>
@@ -3435,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" ht="20" customHeight="1" spans="1:9">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <f>MAX(A$1:A62)+1</f>
         <v>47</v>
@@ -3466,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" ht="20" customHeight="1" spans="1:9">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <f>MAX(A$1:A63)+1</f>
         <v>48</v>
@@ -3497,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" ht="20" customHeight="1" spans="1:9">
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <f>MAX(A$1:A64)+1</f>
         <v>49</v>
@@ -3528,7 +2937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" ht="20" customHeight="1" spans="1:9">
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <f>MAX(A$1:A65)+1</f>
         <v>50</v>
@@ -3559,7 +2968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" ht="20" customHeight="1" spans="1:9">
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <f>MAX(A$1:A66)+1</f>
         <v>51</v>
@@ -3590,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" ht="20" customHeight="1" spans="1:9">
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <f>MAX(A$1:A67)+1</f>
         <v>52</v>
@@ -3621,28 +3030,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" ht="20" customHeight="1" spans="1:9">
-      <c r="A69" s="3">
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="10">
         <f>MAX(A$1:A68)+1</f>
         <v>53</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="10">
         <f>SUM(I69:I$9999)-SUM(F70:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="7" t="s">
@@ -3652,14 +3061,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:9">
-      <c r="A70" s="3"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="10"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="5" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:9">
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <f>MAX(A$1:A70)+1</f>
         <v>54</v>
@@ -3698,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" ht="20" customHeight="1" spans="1:9">
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <f>MAX(A$1:A71)+1</f>
         <v>55</v>
@@ -3729,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" ht="20" customHeight="1" spans="1:9">
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <f>MAX(A$1:A72)+1</f>
         <v>56</v>
@@ -3760,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" ht="20" customHeight="1" spans="1:9">
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <f>MAX(A$1:A73)+1</f>
         <v>57</v>
@@ -3791,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" ht="20" customHeight="1" spans="1:9">
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <f>MAX(A$1:A74)+1</f>
         <v>58</v>
@@ -3822,7 +3231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" ht="20" customHeight="1" spans="1:9">
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <f>MAX(A$1:A75)+1</f>
         <v>59</v>
@@ -3853,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" ht="20" customHeight="1" spans="1:9">
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <f>MAX(A$1:A76)+1</f>
         <v>60</v>
@@ -3884,28 +3293,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" ht="20" customHeight="1" spans="1:9">
-      <c r="A78" s="3">
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="10">
         <f>MAX(A$1:A77)+1</f>
         <v>61</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="10">
         <f>SUM(I78:I$9999)-SUM(F79:F$9999)</f>
         <v>5</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="6" t="s">
@@ -3915,14 +3324,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20" customHeight="1" spans="1:9">
-      <c r="A79" s="3"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="5" t="s">
         <v>14</v>
       </c>
@@ -3930,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" ht="20" customHeight="1" spans="1:9">
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <f>MAX(A$1:A79)+1</f>
         <v>62</v>
@@ -3961,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" ht="20" customHeight="1" spans="1:9">
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <f>MAX(A$1:A80)+1</f>
         <v>63</v>
@@ -3992,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" ht="20" customHeight="1" spans="1:9">
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <f>MAX(A$1:A81)+1</f>
         <v>64</v>
@@ -4023,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" ht="20" customHeight="1" spans="1:9">
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <f>MAX(A$1:A82)+1</f>
         <v>65</v>
@@ -4054,28 +3463,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" ht="20" customHeight="1" spans="1:9">
-      <c r="A84" s="3">
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="10">
         <f>MAX(A$1:A83)+1</f>
         <v>66</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="10">
         <f>SUM(I84:I$9999)-SUM(F85:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="7" t="s">
@@ -4085,14 +3494,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" ht="20" customHeight="1" spans="1:9">
-      <c r="A85" s="3"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="10"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="5" t="s">
         <v>14</v>
       </c>
@@ -4100,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" ht="20" customHeight="1" spans="1:9">
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <f>MAX(A$1:A85)+1</f>
         <v>67</v>
@@ -4131,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" ht="20" customHeight="1" spans="1:9">
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <f>MAX(A$1:A86)+1</f>
         <v>68</v>
@@ -4162,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" ht="20" customHeight="1" spans="1:9">
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <f>MAX(A$1:A87)+1</f>
         <v>69</v>
@@ -4193,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" ht="20" customHeight="1" spans="1:9">
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <f>MAX(A$1:A88)+1</f>
         <v>70</v>
@@ -4224,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" ht="20" customHeight="1" spans="1:9">
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <f>MAX(A$1:A89)+1</f>
         <v>71</v>
@@ -4255,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" ht="20" customHeight="1" spans="1:9">
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <f>MAX(A$1:A90)+1</f>
         <v>72</v>
@@ -4286,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" ht="20" customHeight="1" spans="1:9">
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <f>MAX(A$1:A91)+1</f>
         <v>73</v>
@@ -4317,28 +3726,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" ht="20" customHeight="1" spans="1:9">
-      <c r="A93" s="3">
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="10">
         <f>MAX(A$1:A92)+1</f>
         <v>74</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="10">
         <f>SUM(I93:I$9999)-SUM(F94:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="5" t="s">
@@ -4348,14 +3757,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" ht="20" customHeight="1" spans="1:9">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="7" t="s">
         <v>22</v>
       </c>
@@ -4363,28 +3772,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" ht="20" customHeight="1" spans="1:9">
-      <c r="A95" s="3">
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="10">
         <f>MAX(A$1:A94)+1</f>
         <v>75</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="10">
         <f>SUM(I95:I$9999)-SUM(F96:F$9999)</f>
         <v>6</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -4394,14 +3803,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" ht="20" customHeight="1" spans="1:9">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="10"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="7" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" ht="20" customHeight="1" spans="1:9">
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <f>MAX(A$1:A96)+1</f>
         <v>76</v>
@@ -4440,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" ht="20" customHeight="1" spans="1:9">
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <f>MAX(A$1:A97)+1</f>
         <v>77</v>
@@ -4472,30 +3881,107 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I98">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
     <sortCondition ref="C2:C98"/>
     <sortCondition ref="D2:D98"/>
     <sortCondition ref="B2:B98"/>
   </sortState>
   <mergeCells count="133">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -4516,103 +4002,27 @@
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>